--- a/mcmaster_excel/JIS_Stainless_Steel_Pan_Head_Screws.xlsx
+++ b/mcmaster_excel/JIS_Stainless_Steel_Pan_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,181 +434,109 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Lg., mm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>HeadDia., mm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>50,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>JIS B 1111</t>
+          <t>SpecificationsMet</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>94102A101</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$20.89</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>94102A136</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>21.14</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -618,7 +546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -658,19 +586,15 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>94102A102</t>
+          <t>94102A101</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>24.54</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>$20.89</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -680,7 +604,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -695,7 +619,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -720,19 +644,15 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>94102A103</t>
+          <t>94102A136</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>24.00</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -742,7 +662,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,19 +702,15 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>94102A104</t>
+          <t>94102A102</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>24.32</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -804,7 +720,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -844,19 +760,15 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>94102A105</t>
+          <t>94102A103</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>26.36</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -866,7 +778,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -906,19 +818,15 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>94102A106</t>
+          <t>94102A104</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>29.00</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -928,7 +836,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -963,24 +871,20 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>94102A107</t>
+          <t>94102A105</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>14.43</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -990,59 +894,55 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>94102A108</t>
+          <t>94102A106</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>17.32</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1052,7 +952,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1092,19 +992,15 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>94102A109</t>
+          <t>94102A107</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20.79</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1114,7 +1010,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1154,19 +1050,15 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>94102A110</t>
+          <t>94102A108</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>27.43</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1176,7 +1068,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1211,24 +1103,20 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>94102A111</t>
+          <t>94102A109</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20.86</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1238,7 +1126,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1248,12 +1136,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1278,19 +1166,15 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>94102A137</t>
+          <t>94102A110</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>17.32</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1300,7 +1184,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1310,12 +1194,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1335,24 +1219,20 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>94102A138</t>
+          <t>94102A111</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>16.57</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1362,59 +1242,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>94102A139</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>16.07</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1424,7 +1264,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1434,12 +1274,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1464,19 +1304,15 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>94102A112</t>
+          <t>94102A137</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>18.39</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1486,7 +1322,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1496,12 +1332,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1526,19 +1362,15 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>94102A113</t>
+          <t>94102A138</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>19.18</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1548,7 +1380,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1558,12 +1390,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1588,19 +1420,15 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>94102A114</t>
+          <t>94102A139</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20.68</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1610,7 +1438,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1650,19 +1478,15 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>94102A115</t>
+          <t>94102A112</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>22.07</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1672,7 +1496,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1707,24 +1531,20 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>94102A116</t>
+          <t>94102A113</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>19.21</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>19.18</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1734,7 +1554,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1769,24 +1589,20 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>94102A117</t>
+          <t>94102A114</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>25.14</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1796,7 +1612,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1806,12 +1622,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1836,19 +1652,15 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>94102A118</t>
+          <t>94102A115</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>24.25</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1858,7 +1670,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1868,12 +1680,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1898,19 +1710,15 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>94102A119</t>
+          <t>94102A116</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>18.89</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1920,7 +1728,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1930,12 +1738,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1955,24 +1763,20 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>94102A120</t>
+          <t>94102A117</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>27.21</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1982,59 +1786,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>94102A121</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>18.93</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2044,7 +1808,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2079,24 +1843,20 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>94102A122</t>
+          <t>94102A118</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>19.82</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2106,7 +1866,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2146,19 +1906,15 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>94102A123</t>
+          <t>94102A119</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>17.71</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2168,7 +1924,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2203,24 +1959,20 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>94102A124</t>
+          <t>94102A120</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>20.75</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2230,7 +1982,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2270,19 +2022,15 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>94102A125</t>
+          <t>94102A121</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2292,7 +2040,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2327,24 +2075,20 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>94102A126</t>
+          <t>94102A122</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>19.82</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2354,7 +2098,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2364,17 +2108,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2394,19 +2138,15 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>94102A127</t>
+          <t>94102A123</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>15.79</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2416,7 +2156,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2426,17 +2166,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2456,19 +2196,15 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>94102A128</t>
+          <t>94102A124</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>17.93</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2478,7 +2214,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2488,17 +2224,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2518,19 +2254,15 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>94102A129</t>
+          <t>94102A125</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>22.82</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2540,7 +2272,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2550,17 +2282,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2575,24 +2307,20 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>94102A130</t>
+          <t>94102A126</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>22.50</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2602,59 +2330,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>94102A131</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2664,7 +2352,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2699,24 +2387,20 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>94102A132</t>
+          <t>94102A127</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2726,7 +2410,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2761,24 +2445,20 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>94102A133</t>
+          <t>94102A128</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2788,60 +2468,346 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>94102A129</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>94102A130</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>94102A131</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>94102A132</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>94102A133</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>10.50</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>3.90</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>94102A134</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>5.32</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
